--- a/outputs-HGR-r202-archive/o__Christensenellales.xlsx
+++ b/outputs-HGR-r202-archive/o__Christensenellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,50 +524,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10417.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.087581410293747e-06</v>
+        <v>0.0001458177348971171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999986100067332</v>
+        <v>0.9937739601268043</v>
       </c>
       <c r="D2" t="n">
-        <v>4.933275973228634e-08</v>
+        <v>0.004030239944180587</v>
       </c>
       <c r="E2" t="n">
-        <v>2.792406532242329e-11</v>
+        <v>9.445163590650082e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>9.892472245972421e-08</v>
+        <v>0.0001453624943189472</v>
       </c>
       <c r="G2" t="n">
-        <v>1.473047058835471e-09</v>
+        <v>2.456558770578014e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>7.679747355296741e-07</v>
+        <v>1.734619970757471e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>5.171767069144216e-06</v>
+        <v>0.001630314214949093</v>
       </c>
       <c r="J2" t="n">
-        <v>1.585830638900146e-06</v>
+        <v>0.0002738721082077773</v>
       </c>
       <c r="K2" t="n">
-        <v>2.683079023872325e-10</v>
+        <v>3.790510343293605e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>4.416346101973336e-09</v>
+        <v>1.228278204865838e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.323356844642522e-07</v>
+        <v>1.964555509277309e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.22044367545542e-14</v>
+        <v>2.220152595093525e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.999986100067332</v>
+        <v>0.9937739601268043</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -583,168 +583,168 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10635.fa</t>
+          <t>even_MAG-GUT10417.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005777068012742258</v>
+        <v>6.087581410293747e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2833630102017509</v>
+        <v>0.999986100067332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008478534584096429</v>
+        <v>4.933275973228634e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000727478544028488</v>
+        <v>2.792406532242329e-11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001377955160981024</v>
+        <v>9.892472245972421e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000650751493937838</v>
+        <v>1.473047058835471e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1229308474870982</v>
+        <v>7.679747355296741e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02848129277445718</v>
+        <v>5.171767069144216e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5520054211839964</v>
+        <v>1.585830638900146e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00264563106648375</v>
+        <v>2.683079023872325e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.518154569483929e-06</v>
+        <v>4.416346101973336e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>1.218847912090948e-08</v>
+        <v>1.323356844642522e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.72992026638795e-12</v>
+        <v>2.22044367545542e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5520054211839964</v>
+        <v>0.999986100067332</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>f__QALW01</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>f__QALW01(reject)</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1707.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07392341720136385</v>
+        <v>0.0005032499911510262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09123219178387269</v>
+        <v>0.9909791036886528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07398775205452354</v>
+        <v>0.003189662394901649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07388605338576355</v>
+        <v>5.977774312689233e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07386887695664142</v>
+        <v>4.577996179637662e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07387031743500386</v>
+        <v>3.24180266077899e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07418839405172177</v>
+        <v>2.148620216059192e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07421584450711596</v>
+        <v>0.003968578482333076</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09534292349219882</v>
+        <v>0.001310010898835124</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07388036926631632</v>
+        <v>1.592988277224109e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07386795972285555</v>
+        <v>1.858290581066036e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07386795007892678</v>
+        <v>1.877847714946055e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07386795006369574</v>
+        <v>2.220058316306058e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09534292349219882</v>
+        <v>0.9909791036886528</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>f__QALW01</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>f__QALW01(reject)</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22878.fa</t>
+          <t>even_MAG-GUT11412.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.812940011017242e-06</v>
+        <v>0.00027887932094375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989569976063291</v>
+        <v>0.9319367045437162</v>
       </c>
       <c r="D5" t="n">
-        <v>1.035869561272194e-06</v>
+        <v>0.04184975092065357</v>
       </c>
       <c r="E5" t="n">
-        <v>1.346928978838727e-13</v>
+        <v>0.01560687054768532</v>
       </c>
       <c r="F5" t="n">
-        <v>1.31360291658563e-06</v>
+        <v>0.007452711261240753</v>
       </c>
       <c r="G5" t="n">
-        <v>1.809088280340123e-07</v>
+        <v>5.724805829710528e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>5.342645133883582e-08</v>
+        <v>0.001484876863737191</v>
       </c>
       <c r="I5" t="n">
-        <v>1.297306004672346e-06</v>
+        <v>0.0004470924125541427</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001036614590626536</v>
+        <v>0.000942007884268067</v>
       </c>
       <c r="K5" t="n">
-        <v>1.637824810891601e-09</v>
+        <v>1.642118141860461e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>8.960819190716423e-09</v>
+        <v>3.69477737785273e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>6.831504707252081e-07</v>
+        <v>7.42013099984976e-11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220268546229899e-14</v>
+        <v>8.648982722332583e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9989569976063291</v>
+        <v>0.9319367045437162</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -760,50 +760,50 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28136.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.296196547235722e-06</v>
+        <v>8.061631713729051e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999756754822137</v>
+        <v>0.9960454250051498</v>
       </c>
       <c r="D6" t="n">
-        <v>3.510945121810862e-08</v>
+        <v>0.00217424927504499</v>
       </c>
       <c r="E6" t="n">
-        <v>1.197390725692791e-13</v>
+        <v>9.17497274826457e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>3.898023801347506e-06</v>
+        <v>0.0002150277391368822</v>
       </c>
       <c r="G6" t="n">
-        <v>1.239696310119611e-07</v>
+        <v>9.089283145055456e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>2.943276216601906e-08</v>
+        <v>4.969895761495821e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>8.938234326087749e-07</v>
+        <v>0.0006722923066390074</v>
       </c>
       <c r="J6" t="n">
-        <v>1.745701392853229e-05</v>
+        <v>0.000811398168695837</v>
       </c>
       <c r="K6" t="n">
-        <v>4.320198423265728e-11</v>
+        <v>1.47104497057474e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>7.388491370661482e-09</v>
+        <v>6.042213621869736e-08</v>
       </c>
       <c r="M6" t="n">
-        <v>5.835163966914867e-07</v>
+        <v>1.239880580889055e-09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.220441901179462e-14</v>
+        <v>2.220067293303455e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9999756754822137</v>
+        <v>0.9960454250051498</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -819,168 +819,168 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29051.fa</t>
+          <t>even_MAG-GUT12217.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004555867177528558</v>
+        <v>5.869148709998032e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.513475172721933e-13</v>
+        <v>0.9987642389841588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9953530083992843</v>
+        <v>0.0008523550100306359</v>
       </c>
       <c r="E7" t="n">
-        <v>2.249912685132386e-06</v>
+        <v>0.0001688485684248364</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2566272226902e-10</v>
+        <v>0.0001265794177047664</v>
       </c>
       <c r="G7" t="n">
-        <v>4.968447227773714e-08</v>
+        <v>8.139774599824082e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.150146360301575e-10</v>
+        <v>1.562076246595239e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>8.882297312365331e-05</v>
+        <v>9.688986981316433e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>3.258950914175438e-13</v>
+        <v>3.948248363511798e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>5.503635070338651e-13</v>
+        <v>8.337943392650085e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>1.599599406451059e-09</v>
+        <v>1.20501418471238e-08</v>
       </c>
       <c r="M7" t="n">
-        <v>1.137962842891018e-11</v>
+        <v>6.888191312874428e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220039685396486e-14</v>
+        <v>2.225120026376656e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9953530083992843</v>
+        <v>0.9987642389841588</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29076.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00533996724335588</v>
+        <v>0.0003545319792648547</v>
       </c>
       <c r="C8" t="n">
-        <v>1.181475012758712e-12</v>
+        <v>0.9893464528510104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9942022977690714</v>
+        <v>0.004114836113066945</v>
       </c>
       <c r="E8" t="n">
-        <v>1.920688144232551e-05</v>
+        <v>0.0001571916798954428</v>
       </c>
       <c r="F8" t="n">
-        <v>1.215258511047714e-10</v>
+        <v>0.005886179227892026</v>
       </c>
       <c r="G8" t="n">
-        <v>4.554578542731598e-08</v>
+        <v>1.043366934466074e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>3.801370144078765e-10</v>
+        <v>7.47378680145357e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004384803019955156</v>
+        <v>5.742920161479721e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.571583745126288e-12</v>
+        <v>8.497816542892405e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>2.968899096647645e-13</v>
+        <v>7.143301669288679e-09</v>
       </c>
       <c r="L8" t="n">
-        <v>1.751242765360389e-09</v>
+        <v>3.174810383937467e-08</v>
       </c>
       <c r="M8" t="n">
-        <v>3.718402587940679e-13</v>
+        <v>3.453204993879169e-11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.220073588752344e-14</v>
+        <v>6.722893713538761e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9942022977690714</v>
+        <v>0.9893464528510104</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40857.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.149907110461397e-06</v>
+        <v>4.823333708948455e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999936745891136</v>
+        <v>0.9964156331545392</v>
       </c>
       <c r="D9" t="n">
-        <v>4.941863610156978e-07</v>
+        <v>0.001861938242351334</v>
       </c>
       <c r="E9" t="n">
-        <v>6.365363612988901e-09</v>
+        <v>3.613410620134353e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>1.271358900035147e-08</v>
+        <v>0.001656040069204185</v>
       </c>
       <c r="G9" t="n">
-        <v>8.783884564167029e-11</v>
+        <v>3.566068681428606e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>1.491088258107312e-07</v>
+        <v>9.980125714138761e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>3.098141053725724e-06</v>
+        <v>9.654552066193451e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6840985777515e-07</v>
+        <v>5.742057526921966e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.040824244446553e-11</v>
+        <v>3.696228112989289e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>1.091159387294807e-08</v>
+        <v>1.497563615885549e-08</v>
       </c>
       <c r="M9" t="n">
-        <v>3.550886169821941e-08</v>
+        <v>2.611440310814145e-11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.220444969815168e-14</v>
+        <v>2.22037802246568e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9999936745891136</v>
+        <v>0.9964156331545392</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -996,50 +996,50 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41924.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.552363371561873e-07</v>
+        <v>0.0002944366552014085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989617640314904</v>
+        <v>0.9961087282430392</v>
       </c>
       <c r="D10" t="n">
-        <v>9.172379688290085e-07</v>
+        <v>0.001425564128669429</v>
       </c>
       <c r="E10" t="n">
-        <v>1.476867503150022e-12</v>
+        <v>0.000790413909781129</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000308926536243781</v>
+        <v>0.001145534418518507</v>
       </c>
       <c r="G10" t="n">
-        <v>9.327135204189458e-08</v>
+        <v>3.200024588747173e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003565510760758912</v>
+        <v>0.0001693128167617907</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000297945621645971</v>
+        <v>5.462160161987698e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.210140797534649e-06</v>
+        <v>1.131918272236865e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>7.239597212404863e-05</v>
+        <v>7.714249317709054e-09</v>
       </c>
       <c r="L10" t="n">
-        <v>1.545076995549794e-08</v>
+        <v>2.931876717465161e-08</v>
       </c>
       <c r="M10" t="n">
-        <v>2.542369533636759e-08</v>
+        <v>1.036025301764263e-11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220299798632995e-14</v>
+        <v>6.371804626443989e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9989617640314904</v>
+        <v>0.9961087282430392</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1055,50 +1055,50 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42485.fa</t>
+          <t>even_MAG-GUT22049.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.674167628273382e-07</v>
+        <v>0.0003184888411159577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9998595570997196</v>
+        <v>0.7461697352291282</v>
       </c>
       <c r="D11" t="n">
-        <v>6.396540149170146e-07</v>
+        <v>0.245873299055789</v>
       </c>
       <c r="E11" t="n">
-        <v>2.060326554346906e-11</v>
+        <v>0.002724239979097381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001305869955593753</v>
+        <v>1.366823901638995e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>7.113240556065168e-08</v>
+        <v>2.098680921225874e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>2.088358445737604e-09</v>
+        <v>0.00462522673697568</v>
       </c>
       <c r="I11" t="n">
-        <v>1.300900829508123e-06</v>
+        <v>0.0001582824720694365</v>
       </c>
       <c r="J11" t="n">
-        <v>5.988796071781257e-06</v>
+        <v>0.0001269559111566009</v>
       </c>
       <c r="K11" t="n">
-        <v>2.570900361149868e-09</v>
+        <v>8.561734062983192e-09</v>
       </c>
       <c r="L11" t="n">
-        <v>2.306363840274548e-08</v>
+        <v>2.977076440080591e-07</v>
       </c>
       <c r="M11" t="n">
-        <v>1.560261113612974e-06</v>
+        <v>2.335475215387122e-13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.220422133429349e-14</v>
+        <v>2.335475215386824e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9998595570997196</v>
+        <v>0.7461697352291282</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1107,116 +1107,116 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-138(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42494.fa</t>
+          <t>even_MAG-GUT22878.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002245969838725652</v>
+        <v>1.812940011017242e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>1.572898076780504e-07</v>
+        <v>0.9989569976063291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9984725082969562</v>
+        <v>1.035869561272194e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001235846270976008</v>
+        <v>1.346928978838727e-13</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220344476191484e-14</v>
+        <v>1.31360291658563e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>6.556391808093805e-05</v>
+        <v>1.809088280340123e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>3.553610519491553e-07</v>
+        <v>5.342645133883582e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>9.04564983336315e-07</v>
+        <v>1.297306004672346e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>1.548901138135277e-10</v>
+        <v>0.001036614590626536</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220344476191484e-14</v>
+        <v>1.637824810891601e-09</v>
       </c>
       <c r="L12" t="n">
-        <v>6.713450995424682e-08</v>
+        <v>8.960819190716423e-09</v>
       </c>
       <c r="M12" t="n">
-        <v>2.480462374427871e-11</v>
+        <v>6.831504707252081e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220344476191484e-14</v>
+        <v>2.220268546229899e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9984725082969562</v>
+        <v>0.9989569976063291</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42584.fa</t>
+          <t>even_MAG-GUT28136.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.033020103852828e-06</v>
+        <v>1.296196547235722e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999987316436135</v>
+        <v>0.9999756754822137</v>
       </c>
       <c r="D13" t="n">
-        <v>7.690144807786602e-08</v>
+        <v>3.510945121810862e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>1.273934716516959e-11</v>
+        <v>1.197390725692791e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.825888086679069e-07</v>
+        <v>3.898023801347506e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.278719374873293e-09</v>
+        <v>1.239696310119611e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>5.584178391541513e-08</v>
+        <v>2.943276216601906e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>1.49061640289365e-06</v>
+        <v>8.938234326087749e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>4.62923719705692e-06</v>
+        <v>1.745701392853229e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.034854839155317e-11</v>
+        <v>4.320198423265728e-11</v>
       </c>
       <c r="L13" t="n">
-        <v>4.186609992420056e-09</v>
+        <v>7.388491370661482e-09</v>
       </c>
       <c r="M13" t="n">
-        <v>2.088696810057233e-07</v>
+        <v>5.835163966914867e-07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.22044388649354e-14</v>
+        <v>2.220441901179462e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>0.999987316436135</v>
+        <v>0.9999756754822137</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1232,168 +1232,168 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43894.fa</t>
+          <t>even_MAG-GUT29051.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.179568836229236e-05</v>
+        <v>0.004555867177528558</v>
       </c>
       <c r="C14" t="n">
-        <v>1.149092774659066e-10</v>
+        <v>3.513475172721933e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>5.537702828748268e-06</v>
+        <v>0.9953530083992843</v>
       </c>
       <c r="E14" t="n">
-        <v>5.8362394708843e-09</v>
+        <v>2.249912685132386e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220436523109105e-14</v>
+        <v>1.2566272226902e-10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999442183252792</v>
+        <v>4.968447227773714e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220436523109105e-14</v>
+        <v>1.150146360301575e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>5.922253506964702e-06</v>
+        <v>8.882297312365331e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220436523109105e-14</v>
+        <v>3.258950914175438e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>2.220436523109105e-14</v>
+        <v>5.503635070338651e-13</v>
       </c>
       <c r="L14" t="n">
-        <v>4.187302731849668e-08</v>
+        <v>1.599599406451059e-09</v>
       </c>
       <c r="M14" t="n">
-        <v>2.478205735646877e-06</v>
+        <v>1.137962842891018e-11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.220436523109105e-14</v>
+        <v>2.220039685396486e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9999442183252792</v>
+        <v>0.9953530083992843</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>f__CAG-917</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>f__CAG-917</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52107.fa</t>
+          <t>even_MAG-GUT29076.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.038681034925228e-06</v>
+        <v>0.00533996724335588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9998779464839529</v>
+        <v>1.181475012758712e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>9.574168699998545e-07</v>
+        <v>0.9942022977690714</v>
       </c>
       <c r="E15" t="n">
-        <v>1.863962837752957e-07</v>
+        <v>1.920688144232551e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>1.438900137022269e-07</v>
+        <v>1.215258511047714e-10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.492928877460169e-10</v>
+        <v>4.554578542731598e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>1.339953580467627e-06</v>
+        <v>3.801370144078765e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001097725928226111</v>
+        <v>0.0004384803019955156</v>
       </c>
       <c r="J15" t="n">
-        <v>1.175540143305274e-07</v>
+        <v>3.571583745126288e-12</v>
       </c>
       <c r="K15" t="n">
-        <v>4.935378948546905e-07</v>
+        <v>2.968899096647645e-13</v>
       </c>
       <c r="L15" t="n">
-        <v>3.220019417171688e-09</v>
+        <v>1.751242765360389e-09</v>
       </c>
       <c r="M15" t="n">
-        <v>2.419805211418635e-11</v>
+        <v>3.718402587940679e-13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.220425211241986e-14</v>
+        <v>2.220073588752344e-14</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9998779464839529</v>
+        <v>0.9942022977690714</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52138.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.485226202642009e-06</v>
+        <v>0.001932463055138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999494817298724</v>
+        <v>0.9544655618019005</v>
       </c>
       <c r="D16" t="n">
-        <v>2.074433436655768e-07</v>
+        <v>0.01183444455384635</v>
       </c>
       <c r="E16" t="n">
-        <v>1.329616658890156e-08</v>
+        <v>0.01755218214313852</v>
       </c>
       <c r="F16" t="n">
-        <v>1.016140754754639e-07</v>
+        <v>0.001728749886118666</v>
       </c>
       <c r="G16" t="n">
-        <v>2.887851989836076e-10</v>
+        <v>1.768054803294548e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>7.118834744666505e-07</v>
+        <v>0.01199473821653149</v>
       </c>
       <c r="I16" t="n">
-        <v>4.576184301115663e-05</v>
+        <v>0.0001881506726313516</v>
       </c>
       <c r="J16" t="n">
-        <v>1.172278017267354e-06</v>
+        <v>0.0003032558427784727</v>
       </c>
       <c r="K16" t="n">
-        <v>6.052426469415354e-08</v>
+        <v>9.067160826627399e-08</v>
       </c>
       <c r="L16" t="n">
-        <v>3.650564451122509e-09</v>
+        <v>1.86323092422012e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>2.221997247690019e-10</v>
+        <v>2.72765418039194e-11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.220437422997922e-14</v>
+        <v>4.590725652527591e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9999494817298724</v>
+        <v>0.9544655618019005</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1409,50 +1409,50 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5727.fa</t>
+          <t>even_MAG-GUT40857.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.486840309037182e-06</v>
+        <v>2.149907110461397e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999700798385791</v>
+        <v>0.9999936745891136</v>
       </c>
       <c r="D17" t="n">
-        <v>1.624166069172049e-07</v>
+        <v>4.941863610156978e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>3.121059995613854e-13</v>
+        <v>6.365363612988901e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>3.397951121264558e-06</v>
+        <v>1.271358900035147e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.212280395515251e-08</v>
+        <v>8.783884564167029e-11</v>
       </c>
       <c r="H17" t="n">
-        <v>1.245127255238885e-07</v>
+        <v>1.491088258107312e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>1.137166061861239e-06</v>
+        <v>3.098141053725724e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.183988972828727e-05</v>
+        <v>3.6840985777515e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>4.487951279929416e-10</v>
+        <v>7.040824244446553e-11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.009536360268137e-08</v>
+        <v>1.091159387294807e-08</v>
       </c>
       <c r="M17" t="n">
-        <v>7.387175712547924e-07</v>
+        <v>3.550886169821941e-08</v>
       </c>
       <c r="N17" t="n">
-        <v>2.220440967685315e-14</v>
+        <v>2.220444969815168e-14</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9999700798385791</v>
+        <v>0.9999936745891136</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1468,50 +1468,50 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59039.fa</t>
+          <t>even_MAG-GUT42485.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.378291572435201e-07</v>
+        <v>2.674167628273382e-07</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999323511719559</v>
+        <v>0.9998595570997196</v>
       </c>
       <c r="D18" t="n">
-        <v>7.122545289177408e-08</v>
+        <v>6.396540149170146e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220434558398752e-14</v>
+        <v>2.060326554346906e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>1.283773052459697e-05</v>
+        <v>0.0001305869955593753</v>
       </c>
       <c r="G18" t="n">
-        <v>3.593631147670646e-07</v>
+        <v>7.113240556065168e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>3.304884111328714e-09</v>
+        <v>2.088358445737604e-09</v>
       </c>
       <c r="I18" t="n">
-        <v>7.411803821199889e-07</v>
+        <v>1.300900829508123e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>5.17248037432981e-05</v>
+        <v>5.988796071781257e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>6.83369653143432e-10</v>
+        <v>2.570900361149868e-09</v>
       </c>
       <c r="L18" t="n">
-        <v>1.179734780680795e-08</v>
+        <v>2.306363840274548e-08</v>
       </c>
       <c r="M18" t="n">
-        <v>1.760910023309632e-06</v>
+        <v>1.560261113612974e-06</v>
       </c>
       <c r="N18" t="n">
-        <v>2.220434558398752e-14</v>
+        <v>2.220422133429349e-14</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9999323511719559</v>
+        <v>0.9998595570997196</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1527,109 +1527,109 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61159.fa</t>
+          <t>even_MAG-GUT42494.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.559291199355063e-06</v>
+        <v>0.0002245969838725652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999872519166568</v>
+        <v>1.572898076780504e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>1.881409847833421e-07</v>
+        <v>0.9984725082969562</v>
       </c>
       <c r="E19" t="n">
-        <v>1.05392071079036e-11</v>
+        <v>0.001235846270976008</v>
       </c>
       <c r="F19" t="n">
-        <v>4.359334675867402e-06</v>
+        <v>2.220344476191484e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>7.422830993754041e-08</v>
+        <v>6.556391808093805e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.519845039898156e-07</v>
+        <v>3.553610519491553e-07</v>
       </c>
       <c r="I19" t="n">
-        <v>1.809257443359839e-06</v>
+        <v>9.04564983336315e-07</v>
       </c>
       <c r="J19" t="n">
-        <v>4.08783251747544e-06</v>
+        <v>1.548901138135277e-10</v>
       </c>
       <c r="K19" t="n">
-        <v>6.301746132521321e-10</v>
+        <v>2.220344476191484e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>7.477800268017771e-09</v>
+        <v>6.713450995424682e-08</v>
       </c>
       <c r="M19" t="n">
-        <v>4.098951723150547e-07</v>
+        <v>2.480462374427871e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.220443879135709e-14</v>
+        <v>2.220344476191484e-14</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999872519166568</v>
+        <v>0.9984725082969562</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61959.fa</t>
+          <t>even_MAG-GUT42584.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.184312342810512e-07</v>
+        <v>6.033020103852828e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999766182391684</v>
+        <v>0.999987316436135</v>
       </c>
       <c r="D20" t="n">
-        <v>2.133690786948055e-07</v>
+        <v>7.690144807786602e-08</v>
       </c>
       <c r="E20" t="n">
-        <v>4.879310965539046e-12</v>
+        <v>1.273934716516959e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>4.348331821932007e-06</v>
+        <v>1.825888086679069e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>1.069136601294564e-07</v>
+        <v>2.278719374873293e-09</v>
       </c>
       <c r="H20" t="n">
-        <v>1.097671050914279e-07</v>
+        <v>5.584178391541513e-08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.11832924252511e-06</v>
+        <v>1.49061640289365e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>1.492012149297373e-05</v>
+        <v>4.62923719705692e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>8.720065034129977e-10</v>
+        <v>1.034854839155317e-11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.190118244821737e-08</v>
+        <v>4.186609992420056e-09</v>
       </c>
       <c r="M20" t="n">
-        <v>9.33719105386914e-07</v>
+        <v>2.088696810057233e-07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.220442066533753e-14</v>
+        <v>2.22044388649354e-14</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9999766182391684</v>
+        <v>0.999987316436135</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1645,227 +1645,227 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70200.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1993819226495541</v>
+        <v>0.005022561980243</v>
       </c>
       <c r="C21" t="n">
-        <v>5.198609535654924e-08</v>
+        <v>0.9234044653841997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7539220774831485</v>
+        <v>0.02617094858070317</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01022855572436903</v>
+        <v>0.01655298094038509</v>
       </c>
       <c r="F21" t="n">
-        <v>1.547694053851293e-10</v>
+        <v>0.008712701665142365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006305502355221839</v>
+        <v>2.947637753641704e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>1.176203554791807e-06</v>
+        <v>0.01580930495809855</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03583560967295976</v>
+        <v>0.001245970130829447</v>
       </c>
       <c r="J21" t="n">
-        <v>3.871667328686056e-12</v>
+        <v>0.003079862515908677</v>
       </c>
       <c r="K21" t="n">
-        <v>3.080866811084746e-10</v>
+        <v>2.157042419188907e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>5.557432446528691e-08</v>
+        <v>6.931956148744729e-07</v>
       </c>
       <c r="M21" t="n">
-        <v>3.168456004335893e-12</v>
+        <v>1.793480865113108e-10</v>
       </c>
       <c r="N21" t="n">
-        <v>5.758078113905648e-13</v>
+        <v>1.509524852186333e-12</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7539220774831485</v>
+        <v>0.9234044653841997</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>f__CAG-314</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>f__CAG-314(reject)</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77982.fa</t>
+          <t>even_MAG-GUT43894.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.313696197681109e-06</v>
+        <v>4.179568836229236e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999835289665526</v>
+        <v>1.149092774659066e-10</v>
       </c>
       <c r="D22" t="n">
-        <v>1.155285716357939e-07</v>
+        <v>5.537702828748268e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>4.410845031106769e-10</v>
+        <v>5.8362394708843e-09</v>
       </c>
       <c r="F22" t="n">
-        <v>1.145102088362856e-08</v>
+        <v>2.220436523109105e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>5.712295467052308e-11</v>
+        <v>0.9999442183252792</v>
       </c>
       <c r="H22" t="n">
-        <v>3.303920196110504e-07</v>
+        <v>2.220436523109105e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>9.839692646855882e-06</v>
+        <v>5.922253506964702e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>8.440112193318771e-07</v>
+        <v>2.220436523109105e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>7.761694122488413e-11</v>
+        <v>2.220436523109105e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>1.744569702032303e-09</v>
+        <v>4.187302731849668e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>1.394135530157904e-08</v>
+        <v>2.478205735646877e-06</v>
       </c>
       <c r="N22" t="n">
-        <v>2.22044323627148e-14</v>
+        <v>2.220436523109105e-14</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9999835289665526</v>
+        <v>0.9999442183252792</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-917</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-917</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78879.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.079461026096768e-06</v>
+        <v>2.314310855802111e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999202719201568</v>
+        <v>0.2500007020642522</v>
       </c>
       <c r="D23" t="n">
-        <v>1.231554681528536e-07</v>
+        <v>0.0001203472083136999</v>
       </c>
       <c r="E23" t="n">
-        <v>9.178085903074628e-12</v>
+        <v>8.950649245115086e-11</v>
       </c>
       <c r="F23" t="n">
-        <v>9.996237000425684e-06</v>
+        <v>0.7498090849350574</v>
       </c>
       <c r="G23" t="n">
-        <v>6.403566950538459e-08</v>
+        <v>1.666079839979435e-08</v>
       </c>
       <c r="H23" t="n">
-        <v>1.718358975083642e-06</v>
+        <v>4.411332222384415e-07</v>
       </c>
       <c r="I23" t="n">
-        <v>5.865689260619764e-05</v>
+        <v>6.094303745037416e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.081100563605628e-07</v>
+        <v>8.7046029959814e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>7.412765077641298e-07</v>
+        <v>7.346683477432619e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>7.356789238903193e-09</v>
+        <v>7.323158856117732e-09</v>
       </c>
       <c r="M23" t="n">
-        <v>3.318654448019655e-08</v>
+        <v>8.973355521592623e-09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.220432445807083e-14</v>
+        <v>2.21967575488016e-14</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9999202719201568</v>
+        <v>0.7498090849350574</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-74</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>f__CAG-138</t>
+          <t>f__CAG-74(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78908.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.514242056869281e-06</v>
+        <v>0.0009996509412418216</v>
       </c>
       <c r="C24" t="n">
-        <v>0.999988985520945</v>
+        <v>0.9940426230949901</v>
       </c>
       <c r="D24" t="n">
-        <v>1.095151933473256e-07</v>
+        <v>0.0004053679975936789</v>
       </c>
       <c r="E24" t="n">
-        <v>7.055382126173497e-12</v>
+        <v>7.374929546189288e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>4.298234738238927e-07</v>
+        <v>1.655409582745125e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>1.208435538220032e-09</v>
+        <v>5.927949487755221e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>5.176070354997238e-08</v>
+        <v>2.246102466923767e-09</v>
       </c>
       <c r="I24" t="n">
-        <v>2.909061874905233e-06</v>
+        <v>0.0006452684890246381</v>
       </c>
       <c r="J24" t="n">
-        <v>4.775021193841652e-06</v>
+        <v>0.003884566255243618</v>
       </c>
       <c r="K24" t="n">
-        <v>9.292307590649756e-11</v>
+        <v>8.8790457433546e-09</v>
       </c>
       <c r="L24" t="n">
-        <v>5.510660528877227e-09</v>
+        <v>2.731131067588e-08</v>
       </c>
       <c r="M24" t="n">
-        <v>2.182354619504342e-07</v>
+        <v>2.00261698253422e-09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.220444169866303e-14</v>
+        <v>2.220164374570394e-14</v>
       </c>
       <c r="O24" t="n">
-        <v>0.999988985520945</v>
+        <v>0.9940426230949901</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1881,50 +1881,50 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83946.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.812971100954012e-08</v>
+        <v>0.00158581666007605</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9979594608501051</v>
+        <v>0.9852728382126531</v>
       </c>
       <c r="D25" t="n">
-        <v>1.572718510915093e-06</v>
+        <v>0.004485714955818523</v>
       </c>
       <c r="E25" t="n">
-        <v>2.220104003476482e-14</v>
+        <v>1.149784092877428e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001890515722673877</v>
+        <v>1.587600135428412e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>1.955793180840074e-06</v>
+        <v>9.745685502342404e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>9.116586212764975e-05</v>
+        <v>7.428890173189934e-08</v>
       </c>
       <c r="I25" t="n">
-        <v>4.558758073769427e-05</v>
+        <v>0.00281882701028989</v>
       </c>
       <c r="J25" t="n">
-        <v>1.478385550956416e-06</v>
+        <v>0.005819402659065153</v>
       </c>
       <c r="K25" t="n">
-        <v>7.87841238019024e-06</v>
+        <v>3.105489205830433e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>2.069371567326149e-08</v>
+        <v>1.533604488546834e-07</v>
       </c>
       <c r="M25" t="n">
-        <v>3.158512617493605e-07</v>
+        <v>2.360558535127254e-10</v>
       </c>
       <c r="N25" t="n">
-        <v>2.220104003476482e-14</v>
+        <v>2.489534409918457e-14</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9979594608501051</v>
+        <v>0.9852728382126531</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1940,50 +1940,50 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84692.fa</t>
+          <t>even_MAG-GUT52107.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0736853968944141</v>
+        <v>9.038681034925228e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09447290378252966</v>
+        <v>0.9998779464839529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07369633381778753</v>
+        <v>9.574168699998545e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07368870770205796</v>
+        <v>1.863962837752957e-07</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0736464183555359</v>
+        <v>1.438900137022269e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07364713555720329</v>
+        <v>2.492928877460169e-10</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07450519933773878</v>
+        <v>1.339953580467627e-06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0738896177104245</v>
+        <v>0.0001097725928226111</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09416994927488047</v>
+        <v>1.175540143305274e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07365936817134999</v>
+        <v>4.935378948546905e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07364632610225239</v>
+        <v>3.220019417171688e-09</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07364632165530902</v>
+        <v>2.419805211418635e-11</v>
       </c>
       <c r="N26" t="n">
-        <v>0.07364632163851635</v>
+        <v>2.220425211241986e-14</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09447290378252966</v>
+        <v>0.9998779464839529</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1992,116 +1992,116 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>f__CAG-138(reject)</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85846.fa</t>
+          <t>even_MAG-GUT52138.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07581012376122716</v>
+        <v>2.485226202642009e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08106424654690883</v>
+        <v>0.9999494817298724</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07578582327754434</v>
+        <v>2.074433436655768e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07571319901763274</v>
+        <v>1.329616658890156e-08</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07570858541422228</v>
+        <v>1.016140754754639e-07</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0757088289549917</v>
+        <v>2.887851989836076e-10</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08229579801882536</v>
+        <v>7.118834744666505e-07</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07606491322827831</v>
+        <v>4.576184301115663e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07901323187358082</v>
+        <v>1.172278017267354e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07570972879227655</v>
+        <v>6.052426469415354e-08</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07570851047391053</v>
+        <v>3.650564451122509e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07570850532266479</v>
+        <v>2.221997247690019e-10</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07570850531793658</v>
+        <v>2.220437422997922e-14</v>
       </c>
       <c r="O27" t="n">
-        <v>0.08229579801882536</v>
+        <v>0.9999494817298724</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>f__Christensenellaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>f__Christensenellaceae(reject)</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86514.fa</t>
+          <t>even_MAG-GUT5727.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.663270095233191e-08</v>
+        <v>2.486840309037182e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9980645775172632</v>
+        <v>0.9999700798385791</v>
       </c>
       <c r="D28" t="n">
-        <v>2.403082526231924e-07</v>
+        <v>1.624166069172049e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220118210347638e-14</v>
+        <v>3.121059995613854e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001185312711647237</v>
+        <v>3.397951121264558e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>4.538235138807356e-06</v>
+        <v>2.212280395515251e-08</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0006141985477976599</v>
+        <v>1.245127255238885e-07</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001128845787207263</v>
+        <v>1.137166061861239e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>3.466872456245149e-07</v>
+        <v>2.183988972828727e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>1.765288876030847e-05</v>
+        <v>4.487951279929416e-10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.670010579167499e-08</v>
+        <v>1.009536360268137e-08</v>
       </c>
       <c r="M28" t="n">
-        <v>2.151923228039093e-07</v>
+        <v>7.387175712547924e-07</v>
       </c>
       <c r="N28" t="n">
-        <v>2.220118210347638e-14</v>
+        <v>2.220440967685315e-14</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9980645775172632</v>
+        <v>0.9999700798385791</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2117,588 +2117,1237 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86868.fa</t>
+          <t>even_MAG-GUT59039.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.999358269021952</v>
+        <v>1.378291572435201e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>3.594952503742281e-10</v>
+        <v>0.9999323511719559</v>
       </c>
       <c r="D29" t="n">
-        <v>3.911304014634443e-06</v>
+        <v>7.122545289177408e-08</v>
       </c>
       <c r="E29" t="n">
-        <v>9.363256797405013e-05</v>
+        <v>2.220434558398752e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220395234147272e-14</v>
+        <v>1.283773052459697e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>2.908681661974906e-07</v>
+        <v>3.593631147670646e-07</v>
       </c>
       <c r="H29" t="n">
-        <v>4.993819759439414e-07</v>
+        <v>3.304884111328714e-09</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005433914175349408</v>
+        <v>7.411803821199889e-07</v>
       </c>
       <c r="J29" t="n">
-        <v>3.147664248255684e-11</v>
+        <v>5.17248037432981e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.706888743238907e-11</v>
+        <v>6.83369653143432e-10</v>
       </c>
       <c r="L29" t="n">
-        <v>4.997058349095968e-09</v>
+        <v>1.179734780680795e-08</v>
       </c>
       <c r="M29" t="n">
-        <v>3.23906229722921e-12</v>
+        <v>1.760910023309632e-06</v>
       </c>
       <c r="N29" t="n">
-        <v>2.220395234147272e-14</v>
+        <v>2.220434558398752e-14</v>
       </c>
       <c r="O29" t="n">
-        <v>0.999358269021952</v>
+        <v>0.9999323511719559</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87091.fa</t>
+          <t>even_MAG-GUT61159.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9985214891267266</v>
+        <v>1.559291199355063e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>5.82797134650014e-09</v>
+        <v>0.9999872519166568</v>
       </c>
       <c r="D30" t="n">
-        <v>6.048191153783258e-06</v>
+        <v>1.881409847833421e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001166372272912514</v>
+        <v>1.05392071079036e-11</v>
       </c>
       <c r="F30" t="n">
-        <v>1.749513799397954e-13</v>
+        <v>4.359334675867402e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>1.079127764209966e-07</v>
+        <v>7.422830993754041e-08</v>
       </c>
       <c r="H30" t="n">
-        <v>8.904635243853348e-08</v>
+        <v>2.519845039898156e-07</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0013556117395649</v>
+        <v>1.809257443359839e-06</v>
       </c>
       <c r="J30" t="n">
-        <v>6.074016936823214e-11</v>
+        <v>4.08783251747544e-06</v>
       </c>
       <c r="K30" t="n">
-        <v>6.355438320739392e-09</v>
+        <v>6.301746132521321e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>4.453166307887167e-09</v>
+        <v>7.477800268017771e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>5.862133566170384e-11</v>
+        <v>4.098951723150547e-07</v>
       </c>
       <c r="N30" t="n">
-        <v>2.220267987967696e-14</v>
+        <v>2.220443879135709e-14</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9985214891267266</v>
+        <v>0.9999872519166568</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87486.fa</t>
+          <t>even_MAG-GUT61959.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.996883766119653</v>
+        <v>6.184312342810512e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.38070452905137e-09</v>
+        <v>0.9999766182391684</v>
       </c>
       <c r="D31" t="n">
-        <v>1.353380758662204e-05</v>
+        <v>2.133690786948055e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>3.389153464925274e-05</v>
+        <v>4.879310965539046e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>1.242305081421638e-11</v>
+        <v>4.348331821932007e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>1.468767754748538e-08</v>
+        <v>1.069136601294564e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>3.05889486268323e-07</v>
+        <v>1.097671050914279e-07</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003068476460158104</v>
+        <v>2.11832924252511e-06</v>
       </c>
       <c r="J31" t="n">
-        <v>9.520732144324395e-12</v>
+        <v>1.492012149297373e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>8.239711504886171e-09</v>
+        <v>8.720065034129977e-10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.855129476175092e-09</v>
+        <v>1.190118244821737e-08</v>
       </c>
       <c r="M31" t="n">
-        <v>3.277521538085041e-12</v>
+        <v>9.33719105386914e-07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.220033859923477e-14</v>
+        <v>2.220442066533753e-14</v>
       </c>
       <c r="O31" t="n">
-        <v>0.996883766119653</v>
+        <v>0.9999766182391684</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87573.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9980360310761734</v>
+        <v>0.001551623991807975</v>
       </c>
       <c r="C32" t="n">
-        <v>1.28200585408626e-08</v>
+        <v>0.9683148714204908</v>
       </c>
       <c r="D32" t="n">
-        <v>4.041033044413077e-05</v>
+        <v>0.001809690286584747</v>
       </c>
       <c r="E32" t="n">
-        <v>2.709882565495e-05</v>
+        <v>2.850746895187171e-09</v>
       </c>
       <c r="F32" t="n">
-        <v>6.161696017038772e-13</v>
+        <v>8.390460910198899e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>2.699697620449011e-07</v>
+        <v>1.511302677980869e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>1.368937869308246e-06</v>
+        <v>1.213226545520244e-09</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001894802215718252</v>
+        <v>0.0004078196107023654</v>
       </c>
       <c r="J32" t="n">
-        <v>7.841002869405686e-12</v>
+        <v>0.02789233375596595</v>
       </c>
       <c r="K32" t="n">
-        <v>5.075558782284983e-10</v>
+        <v>6.767297067724757e-08</v>
       </c>
       <c r="L32" t="n">
-        <v>5.30021853838976e-09</v>
+        <v>8.396134242565144e-08</v>
       </c>
       <c r="M32" t="n">
-        <v>8.065717940335326e-12</v>
+        <v>1.748449382633362e-09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.220231712249543e-14</v>
+        <v>2.220130160674502e-14</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9980360310761734</v>
+        <v>0.9683148714204908</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87828.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9982971907392102</v>
+        <v>0.001551623991807975</v>
       </c>
       <c r="C33" t="n">
-        <v>1.184254767828956e-09</v>
+        <v>0.9683148714204908</v>
       </c>
       <c r="D33" t="n">
-        <v>2.142592831606901e-06</v>
+        <v>0.001809690286584747</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0002539380774310999</v>
+        <v>2.850746895187171e-09</v>
       </c>
       <c r="F33" t="n">
-        <v>1.304400578001949e-13</v>
+        <v>8.390460910198899e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>5.394807237044364e-09</v>
+        <v>1.511302677980869e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>5.93062566620169e-07</v>
+        <v>1.213226545520244e-09</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001446124180224024</v>
+        <v>0.0004078196107023654</v>
       </c>
       <c r="J33" t="n">
-        <v>8.494749083271921e-11</v>
+        <v>0.02789233375596595</v>
       </c>
       <c r="K33" t="n">
-        <v>1.928278638934993e-09</v>
+        <v>6.767297067724757e-08</v>
       </c>
       <c r="L33" t="n">
-        <v>2.744151272492102e-09</v>
+        <v>8.396134242565144e-08</v>
       </c>
       <c r="M33" t="n">
-        <v>1.114445695302535e-11</v>
+        <v>1.748449382633362e-09</v>
       </c>
       <c r="N33" t="n">
-        <v>2.220250600268085e-14</v>
+        <v>2.220130160674502e-14</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9982971907392102</v>
+        <v>0.9683148714204908</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88085.fa</t>
+          <t>even_MAG-GUT70200.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9990271161980102</v>
+        <v>0.1993819226495541</v>
       </c>
       <c r="C34" t="n">
-        <v>1.936854504965449e-09</v>
+        <v>5.198609535654924e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>1.467430059884761e-05</v>
+        <v>0.7539220774831485</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001227775072511897</v>
+        <v>0.01022855572436903</v>
       </c>
       <c r="F34" t="n">
-        <v>1.086239990375051e-12</v>
+        <v>1.547694053851293e-10</v>
       </c>
       <c r="G34" t="n">
-        <v>2.30264766417274e-07</v>
+        <v>0.0006305502355221839</v>
       </c>
       <c r="H34" t="n">
-        <v>6.650816842954163e-07</v>
+        <v>1.176203554791807e-06</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0008345238406263914</v>
+        <v>0.03583560967295976</v>
       </c>
       <c r="J34" t="n">
-        <v>4.674445265275568e-11</v>
+        <v>3.871667328686056e-12</v>
       </c>
       <c r="K34" t="n">
-        <v>7.969312908405651e-09</v>
+        <v>3.080866811084746e-10</v>
       </c>
       <c r="L34" t="n">
-        <v>2.839620581950023e-09</v>
+        <v>5.557432446528691e-08</v>
       </c>
       <c r="M34" t="n">
-        <v>1.342167983668355e-11</v>
+        <v>3.168456004335893e-12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.22358074693629e-14</v>
+        <v>5.758078113905648e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9990271161980102</v>
+        <v>0.7539220774831485</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-314</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-314(reject)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88218.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9978991552170157</v>
+        <v>0.00324177494368934</v>
       </c>
       <c r="C35" t="n">
-        <v>1.584466129493524e-10</v>
+        <v>0.8579877503108622</v>
       </c>
       <c r="D35" t="n">
-        <v>1.842538955748908e-06</v>
+        <v>0.1019444896309501</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008051066460907787</v>
+        <v>0.01296902796187823</v>
       </c>
       <c r="F35" t="n">
-        <v>1.446006369608504e-13</v>
+        <v>0.02200710460883073</v>
       </c>
       <c r="G35" t="n">
-        <v>6.48737818987195e-07</v>
+        <v>4.401603734267088e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>3.578276885097374e-08</v>
+        <v>0.001170133831365901</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001293198006091929</v>
+        <v>0.0005869608985437928</v>
       </c>
       <c r="J35" t="n">
-        <v>3.161093998276894e-13</v>
+        <v>9.207894573294063e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>1.164516121604647e-08</v>
+        <v>2.753200877818235e-08</v>
       </c>
       <c r="L35" t="n">
-        <v>1.256048583893057e-09</v>
+        <v>2.11126533074838e-07</v>
       </c>
       <c r="M35" t="n">
-        <v>1.111878051554577e-11</v>
+        <v>4.87435288577348e-11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.224974026675847e-14</v>
+        <v>4.879401920895519e-13</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9978991552170157</v>
+        <v>0.8579877503108622</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88257.fa</t>
+          <t>even_MAG-GUT77982.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9968450859858131</v>
+        <v>5.313696197681109e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>1.03136994308232e-09</v>
+        <v>0.9999835289665526</v>
       </c>
       <c r="D36" t="n">
-        <v>2.689872669558239e-06</v>
+        <v>1.155285716357939e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>3.150224546552215e-05</v>
+        <v>4.410845031106769e-10</v>
       </c>
       <c r="F36" t="n">
-        <v>8.677295060528762e-12</v>
+        <v>1.145102088362856e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>1.215283460413612e-07</v>
+        <v>5.712295467052308e-11</v>
       </c>
       <c r="H36" t="n">
-        <v>3.753603264080399e-07</v>
+        <v>3.303920196110504e-07</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003120205416124446</v>
+        <v>9.839692646855882e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>7.369632871046469e-12</v>
+        <v>8.440112193318771e-07</v>
       </c>
       <c r="K36" t="n">
-        <v>1.487697851969911e-08</v>
+        <v>7.761694122488413e-11</v>
       </c>
       <c r="L36" t="n">
-        <v>3.616714734336997e-09</v>
+        <v>1.744569702032303e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>5.012258127952306e-11</v>
+        <v>1.394135530157904e-08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.220032525141978e-14</v>
+        <v>2.22044323627148e-14</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9968450859858131</v>
+        <v>0.9999835289665526</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88679.fa</t>
+          <t>even_MAG-GUT78879.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9981610196513664</v>
+        <v>8.079461026096768e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>1.728048487014641e-09</v>
+        <v>0.9999202719201568</v>
       </c>
       <c r="D37" t="n">
-        <v>1.461443781181623e-06</v>
+        <v>1.231554681528536e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>4.764963246136073e-05</v>
+        <v>9.178085903074628e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>5.100194316431118e-13</v>
+        <v>9.996237000425684e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>4.097763301150014e-08</v>
+        <v>6.403566950538459e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>9.042757785428169e-08</v>
+        <v>1.718358975083642e-06</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001789711908480759</v>
+        <v>5.865689260619764e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>8.371155087888243e-12</v>
+        <v>3.081100563605628e-07</v>
       </c>
       <c r="K37" t="n">
-        <v>2.037659581236933e-08</v>
+        <v>7.412765077641298e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>3.813503726325832e-09</v>
+        <v>7.356789238903193e-09</v>
       </c>
       <c r="M37" t="n">
-        <v>3.1647846546694e-11</v>
+        <v>3.318654448019655e-08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.220187501309568e-14</v>
+        <v>2.220432445807083e-14</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9981610196513664</v>
+        <v>0.9999202719201568</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>f__Borkfalkiaceae</t>
+          <t>f__CAG-138</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT78908.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.514242056869281e-06</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.999988985520945</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.095151933473256e-07</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.055382126173497e-12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.298234738238927e-07</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.208435538220032e-09</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.176070354997238e-08</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.909061874905233e-06</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.775021193841652e-06</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.292307590649756e-11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.510660528877227e-09</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.182354619504342e-07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.220444169866303e-14</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.999988985520945</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83946.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.812971100954012e-08</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9979594608501051</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.572718510915093e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.220104003476482e-14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001890515722673877</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.955793180840074e-06</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.116586212764975e-05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.558758073769427e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.478385550956416e-06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.87841238019024e-06</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.069371567326149e-08</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.158512617493605e-07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.220104003476482e-14</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9979594608501051</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>f__CAG-138</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86868.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.999358269021952</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.594952503742281e-10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.911304014634443e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.363256797405013e-05</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.220395234147272e-14</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.908681661974906e-07</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.993819759439414e-07</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0005433914175349408</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.147664248255684e-11</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.706888743238907e-11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.997058349095968e-09</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.23906229722921e-12</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.220395234147272e-14</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.999358269021952</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87091.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9985214891267266</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.82797134650014e-09</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.048191153783258e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0001166372272912514</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.749513799397954e-13</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.079127764209966e-07</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.904635243853348e-08</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0013556117395649</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6.074016936823214e-11</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.355438320739392e-09</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.453166307887167e-09</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.862133566170384e-11</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.220267987967696e-14</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9985214891267266</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87486.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.996883766119653</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.38070452905137e-09</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.353380758662204e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.389153464925274e-05</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.242305081421638e-11</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.468767754748538e-08</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.05889486268323e-07</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.003068476460158104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.520732144324395e-12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.239711504886171e-09</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.855129476175092e-09</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.277521538085041e-12</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.220033859923477e-14</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.996883766119653</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87573.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9980360310761734</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.28200585408626e-08</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.041033044413077e-05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.709882565495e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.161696017038772e-13</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.699697620449011e-07</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.368937869308246e-06</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.001894802215718252</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.841002869405686e-12</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.075558782284983e-10</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.30021853838976e-09</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.065717940335326e-12</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.220231712249543e-14</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9980360310761734</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87828.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9982971907392102</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.184254767828956e-09</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.142592831606901e-06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0002539380774310999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.304400578001949e-13</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.394807237044364e-09</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.93062566620169e-07</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.001446124180224024</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.494749083271921e-11</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.928278638934993e-09</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.744151272492102e-09</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.114445695302535e-11</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.220250600268085e-14</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.9982971907392102</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88085.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9990271161980102</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.936854504965449e-09</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.467430059884761e-05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0001227775072511897</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.086239990375051e-12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.30264766417274e-07</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6.650816842954163e-07</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0008345238406263914</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.674445265275568e-11</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7.969312908405651e-09</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.839620581950023e-09</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.342167983668355e-11</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.22358074693629e-14</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.9990271161980102</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88218.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9978991552170157</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.584466129493524e-10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.842538955748908e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0008051066460907787</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.446006369608504e-13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.48737818987195e-07</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.578276885097374e-08</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.001293198006091929</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.161093998276894e-13</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.164516121604647e-08</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.256048583893057e-09</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.111878051554577e-11</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.224974026675847e-14</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.9978991552170157</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88257.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9968450859858131</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.03136994308232e-09</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.689872669558239e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.150224546552215e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.677295060528762e-12</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.215283460413612e-07</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.753603264080399e-07</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.003120205416124446</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7.369632871046469e-12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.487697851969911e-08</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.616714734336997e-09</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.012258127952306e-11</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.220032525141978e-14</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.9968450859858131</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88679.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9981610196513664</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.728048487014641e-09</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.461443781181623e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.764963246136073e-05</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.100194316431118e-13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.097763301150014e-08</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.042757785428169e-08</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.001789711908480759</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.371155087888243e-12</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.037659581236933e-08</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.813503726325832e-09</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.1647846546694e-11</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.220187501309568e-14</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.9981610196513664</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>f__Borkfalkiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88862.fa</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B49" t="n">
         <v>0.9977578891135398</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C49" t="n">
         <v>1.058825950374074e-09</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D49" t="n">
         <v>1.797722754816879e-05</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E49" t="n">
         <v>3.851020436560896e-05</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F49" t="n">
         <v>2.153544555739305e-11</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G49" t="n">
         <v>9.327836309156377e-08</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H49" t="n">
         <v>1.338975051453864e-07</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I49" t="n">
         <v>0.002185319574023175</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J49" t="n">
         <v>3.238872342394415e-11</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K49" t="n">
         <v>7.213813598939795e-08</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L49" t="n">
         <v>3.434111233888093e-09</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M49" t="n">
         <v>1.963548394820129e-11</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N49" t="n">
         <v>2.220147009468135e-14</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O49" t="n">
         <v>0.9977578891135398</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>f__Borkfalkiaceae</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>f__Borkfalkiaceae</t>
         </is>
